--- a/public/sample_uploads/investments_test.xlsx
+++ b/public/sample_uploads/investments_test.xlsx
@@ -29,12 +29,9 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Author:
 </t>
@@ -361,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -421,6 +418,9 @@
   </si>
   <si>
     <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/05/2025</t>
   </si>
   <si>
     <t xml:space="preserve">No</t>
@@ -456,9 +456,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,12 +508,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -521,11 +518,6 @@
       <name val="Tahoma"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -593,7 +585,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -606,16 +598,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -818,12 +806,12 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.47"/>
@@ -843,43 +831,43 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -908,14 +896,14 @@
       <c r="J2" s="1" t="n">
         <v>200000</v>
       </c>
-      <c r="K2" s="5" t="n">
-        <v>45996</v>
-      </c>
-      <c r="M2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>21</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -923,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>6</v>
@@ -943,14 +931,14 @@
       <c r="J3" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>28</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
